--- a/Enforcement Tracker info/ALL_metadata.xlsx
+++ b/Enforcement Tracker info/ALL_metadata.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annguyen\Desktop\School\IBS-Capstone-Project\Enforcement Tracker info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD32FCC-32FF-49B9-BC2F-DD96CAE46CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA42EB-374E-4537-B551-0E4BEEB56C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8ABC738-EBD9-4195-8F24-315C68C1009E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8ABC738-EBD9-4195-8F24-315C68C1009E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$B$1:$M$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="333">
   <si>
     <t>Media, Telecoms and Broadcasting</t>
   </si>
@@ -749,9 +758,6 @@
   </si>
   <si>
     <t>ETid-875</t>
-  </si>
-  <si>
-    <t>Only intention to issue fine</t>
   </si>
   <si>
     <t>Facebook Ireland Limited</t>
@@ -1117,13 +1123,43 @@
   <si>
     <t>https://www.enforcementtracker.com/ETid-318 (Copy: ) | Short URL: https://etid.link/ETid-318</t>
   </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Fine [€]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1140,7 +1176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1184,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1161,6 +1217,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,6 +1248,3394 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9A8-4631-84BD-D8204256D364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1160079040"/>
+        <c:axId val="1160077600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1160079040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160077600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1160077600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160079040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D555-488D-8624-A9E2D27495E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1016182191"/>
+        <c:axId val="1016179791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1016182191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016179791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016179791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016182191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-578A-4786-8694-105B6F2B6012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="922728863"/>
+        <c:axId val="922729823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="922728863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922729823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="922729823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922728863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5972175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97570C3D-4AA7-2FE2-A71E-22C348EA0134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B649ED-6BDC-3F1C-5FF1-C66B573579A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D62AC-9AF3-8F3A-0C0B-D5DE2B1C7A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Annguyen" refreshedDate="45885.888428819446" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="66" xr:uid="{C54348A9-3780-4C3C-94D4-DC7D9B1B80EF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Fine [€]" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1200000000"/>
+    </cacheField>
+    <cacheField name="Controller/Processor" numFmtId="0">
+      <sharedItems containsBlank="1" count="47">
+        <s v="DPP Law Ltd."/>
+        <s v="Advanced Computer Software Group Ltd"/>
+        <s v="Police Service of Northern Ireland"/>
+        <s v="Central Young Men’s Christian Association"/>
+        <s v="UK Ministry of Defense"/>
+        <s v="TikTok"/>
+        <s v="Interserve Group Limited"/>
+        <s v="Easylife Ltd."/>
+        <s v="Tavistock &amp; Portman NHS Foundation Trust"/>
+        <s v="Clearview Al Inc."/>
+        <s v="Tuckers Solicitors LLP"/>
+        <s v="Cabinet Office"/>
+        <s v="HIV Scotland"/>
+        <s v="Mermaids"/>
+        <s v="Ticketmaster UK Limited"/>
+        <s v="Doorstep Dispensaree Ltd. (Pharmacy)"/>
+        <s v="Marriott International, Inc"/>
+        <s v="British Airways"/>
+        <s v="Meta Platforms Ireland Limited"/>
+        <s v="LinkedIn"/>
+        <s v="TikTok Limited"/>
+        <s v="Irish Departement of Health"/>
+        <s v="Bank of Ireland 365"/>
+        <s v="A&amp;G Couriers Limited T/A Fastway Couriers (Ireland)"/>
+        <s v="Centric Health Ltd."/>
+        <s v="WhatsApp Ireland Ltd."/>
+        <s v="VIEC Limited"/>
+        <s v="Slane Credit Union Ltd."/>
+        <s v="Meta Platforms, Inc."/>
+        <s v="Bank of Ireland"/>
+        <s v="Limerick City and County Council"/>
+        <s v="Irish Teacher Council"/>
+        <s v="MOVE Ireland"/>
+        <s v="Facebook Ireland Limited"/>
+        <s v="Vodafone Ireland Limited"/>
+        <s v="Irish Credit Bureau DAC"/>
+        <s v="Tusla Child and Family Agency"/>
+        <s v="University College Dublin"/>
+        <s v="Twitter International Company"/>
+        <s v="Cork University Maternity Hospital"/>
+        <s v="Unknown"/>
+        <s v="C-Planet (IT Solutions) Limited"/>
+        <s v="Lands Authority"/>
+        <s v="Manx Care Ltd"/>
+        <s v="Cosmetic Medical Limited"/>
+        <s v="Department of Home Affairs"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="66">
+  <r>
+    <n v="70300"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3500000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="904000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8700"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="400000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="14500000"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="5033000"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="1547000"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="91000"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="115000"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="585000"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="11800"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="29000"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="1405000"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="320000"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="20450000"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="22046000"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="251000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="310000000"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="91000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="345000000"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="22500"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="1200000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="750000"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="15000"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="460000"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="5500000"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="100000"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="390000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="5000"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="265000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="405000000"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="463000"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="17000000"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="110000"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="60000"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="1500"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="1400"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="225000000"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="90000"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="85000"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="70000"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="450000"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="65000"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <n v="40000"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="75000"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="65000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2500"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="5000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="4000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="20000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2500"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2500"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2500"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="5000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="250000"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2500"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="65000"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <n v="5000"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="202000"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="3250"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="13500"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C2F4C3F-3599-4245-A675-4800513897E4}" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="48">
+        <item x="23"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="41"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="33"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="30"/>
+        <item x="19"/>
+        <item x="43"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="2"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="36"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="26"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="48">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Fine [€]" fld="0" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,30 +4954,1449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508E83B-0249-4A4E-8660-82B623855159}">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1000000000</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="8"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A66">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974040EE-8282-4BA0-9BB7-EA20A92338D1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1000000000</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12416888-2793-4976-A6AA-7B2397E137A6}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1000000000</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D8F3D-5F43-462F-89E6-CCAE4FC5507C}">
+  <dimension ref="A3:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="13">
+        <v>463000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="13">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="13">
+        <v>22046000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="13">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="13">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="13">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="13">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13">
+        <v>70300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1547000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="13">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="13">
+        <v>5033000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="13">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="13">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="13">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="13">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="13">
+        <v>310000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="13">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="13">
+        <v>20450000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="13">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="13">
+        <v>369000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="13">
+        <v>405000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="13">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="13">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1405000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="13">
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="13">
+        <v>345000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="13">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="13">
+        <v>66666.666666666672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="13">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="13">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="13">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="13">
+        <v>30291.666666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="13">
+        <v>115250000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B50" s="13"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="13">
+        <v>55200483.846153848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10603561-C3FD-458D-A025-867D2BEB0B04}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1000000000</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6FAAA4-B0E5-44BB-B021-0459D806A5BC}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <v>463000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>22046000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>70300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>1547000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>5033000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>310000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>20450000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>369000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>405000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>1405000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38">
+        <v>345000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40">
+        <v>66666.666666666672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>30291.666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47">
+        <v>115250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C10F3D5-E512-43BD-904F-2702F7F5DB43}">
   <dimension ref="B1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD66"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="122.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -1556,7 +6434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1594,7 +6472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -1632,7 +6510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1670,7 +6548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1708,7 +6586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1746,7 +6624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -1784,7 +6662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -1822,7 +6700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -1860,7 +6738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1898,7 +6776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1936,7 +6814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1974,7 +6852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -2012,7 +6890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -2050,7 +6928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -2088,7 +6966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>99</v>
       </c>
@@ -2126,7 +7004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -2164,7 +7042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>108</v>
       </c>
@@ -2202,7 +7080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -2240,7 +7118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>117</v>
       </c>
@@ -2278,7 +7156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>124</v>
       </c>
@@ -2316,7 +7194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>129</v>
       </c>
@@ -2354,7 +7232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>133</v>
       </c>
@@ -2392,7 +7270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>138</v>
       </c>
@@ -2430,7 +7308,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>143</v>
       </c>
@@ -2468,7 +7346,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>147</v>
       </c>
@@ -2506,7 +7384,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>152</v>
       </c>
@@ -2544,7 +7422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>156</v>
       </c>
@@ -2582,7 +7460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>161</v>
       </c>
@@ -2620,7 +7498,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>166</v>
       </c>
@@ -2658,7 +7536,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>170</v>
       </c>
@@ -2696,7 +7574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>174</v>
       </c>
@@ -2734,7 +7612,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>179</v>
       </c>
@@ -2772,7 +7650,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>183</v>
       </c>
@@ -2810,7 +7688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>188</v>
       </c>
@@ -2848,7 +7726,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>193</v>
       </c>
@@ -2886,7 +7764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>197</v>
       </c>
@@ -2924,7 +7802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>202</v>
       </c>
@@ -2962,7 +7840,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>207</v>
       </c>
@@ -3000,7 +7878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>211</v>
       </c>
@@ -3013,34 +7891,34 @@
       <c r="E40" s="1">
         <v>44475</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>212</v>
-      </c>
-      <c r="G40" t="s">
-        <v>213</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s">
         <v>2</v>
       </c>
       <c r="M40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>217</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
@@ -3055,30 +7933,30 @@
         <v>1400</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s">
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s">
         <v>2</v>
       </c>
       <c r="M41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>222</v>
       </c>
       <c r="C42" t="s">
         <v>118</v>
@@ -3099,24 +7977,24 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
         <v>10</v>
       </c>
       <c r="M42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>226</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
@@ -3131,30 +8009,30 @@
         <v>90000</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J43" t="s">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s">
         <v>2</v>
       </c>
       <c r="M43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>231</v>
       </c>
       <c r="C44" t="s">
         <v>118</v>
@@ -3169,7 +8047,7 @@
         <v>85000</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
@@ -3181,18 +8059,18 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s">
         <v>2</v>
       </c>
       <c r="M44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>235</v>
       </c>
       <c r="C45" t="s">
         <v>118</v>
@@ -3207,30 +8085,30 @@
         <v>70000</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J45" t="s">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s">
         <v>2</v>
       </c>
       <c r="M45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>240</v>
       </c>
       <c r="C46" t="s">
         <v>118</v>
@@ -3245,30 +8123,30 @@
         <v>450000</v>
       </c>
       <c r="G46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" t="s">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J46" t="s">
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s">
         <v>2</v>
       </c>
       <c r="M46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>245</v>
       </c>
       <c r="C47" t="s">
         <v>118</v>
@@ -3283,30 +8161,30 @@
         <v>65000</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H47" t="s">
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J47" t="s">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L47" t="s">
         <v>2</v>
       </c>
       <c r="M47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>250</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -3321,7 +8199,7 @@
         <v>40000</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -3333,18 +8211,18 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L48" t="s">
         <v>2</v>
       </c>
       <c r="M48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>253</v>
       </c>
       <c r="C49" t="s">
         <v>118</v>
@@ -3359,7 +8237,7 @@
         <v>75000</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
@@ -3371,24 +8249,24 @@
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L49" t="s">
         <v>2</v>
       </c>
       <c r="M49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E50" s="3">
         <v>2022</v>
@@ -3403,30 +8281,30 @@
         <v>12</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M50" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="C51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E51" s="3">
         <v>2023</v>
@@ -3441,30 +8319,30 @@
         <v>12</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M51" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="C52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E52" s="3">
         <v>2023</v>
@@ -3479,30 +8357,30 @@
         <v>12</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="C53" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E53" s="3">
         <v>2020</v>
@@ -3517,30 +8395,30 @@
         <v>12</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M53" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="C54" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E54" s="3">
         <v>2020</v>
@@ -3555,30 +8433,30 @@
         <v>12</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="C55" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E55" s="3">
         <v>2020</v>
@@ -3593,30 +8471,30 @@
         <v>12</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="C56" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E56" s="3">
         <v>2020</v>
@@ -3631,30 +8509,30 @@
         <v>12</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="C57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E57" s="3">
         <v>2020</v>
@@ -3669,30 +8547,30 @@
         <v>12</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="C58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E58" s="3">
         <v>2020</v>
@@ -3707,30 +8585,30 @@
         <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M58" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="C59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E59" s="3">
         <v>2020</v>
@@ -3745,30 +8623,30 @@
         <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E60" s="3">
         <v>2022</v>
@@ -3783,30 +8661,30 @@
         <v>12</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M60" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E61" s="3">
         <v>2022</v>
@@ -3821,30 +8699,30 @@
         <v>12</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M61" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="C62" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E62" s="5">
         <v>44578</v>
@@ -3853,36 +8731,36 @@
         <v>65000</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M62" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="C63" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E63" s="5">
         <v>43514</v>
@@ -3891,36 +8769,36 @@
         <v>5000</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M63" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>310</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>311</v>
-      </c>
-      <c r="D64" t="s">
-        <v>312</v>
       </c>
       <c r="E64" s="1">
         <v>44755</v>
@@ -3929,36 +8807,36 @@
         <v>202000</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J64" t="s">
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s">
         <v>10</v>
       </c>
       <c r="M64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>317</v>
-      </c>
       <c r="C65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" t="s">
         <v>311</v>
-      </c>
-      <c r="D65" t="s">
-        <v>312</v>
       </c>
       <c r="E65" s="1">
         <v>44176</v>
@@ -3967,36 +8845,36 @@
         <v>3250</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
       </c>
       <c r="I65" t="s">
+        <v>318</v>
+      </c>
+      <c r="J65" t="s">
         <v>319</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>320</v>
-      </c>
-      <c r="K65" t="s">
-        <v>321</v>
       </c>
       <c r="L65" t="s">
         <v>2</v>
       </c>
       <c r="M65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>323</v>
-      </c>
       <c r="C66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D66" t="s">
         <v>311</v>
-      </c>
-      <c r="D66" t="s">
-        <v>312</v>
       </c>
       <c r="E66" s="1">
         <v>44007</v>
@@ -4005,7 +8883,7 @@
         <v>13500</v>
       </c>
       <c r="G66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -4017,13 +8895,13 @@
         <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L66" t="s">
         <v>2</v>
       </c>
       <c r="M66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Enforcement Tracker info/ALL_metadata.xlsx
+++ b/Enforcement Tracker info/ALL_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annguyen\Desktop\School\IBS-Capstone-Project\Enforcement Tracker info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA42EB-374E-4537-B551-0E4BEEB56C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AB79F7-9FBF-4B04-AC9D-7BDF1B51BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8ABC738-EBD9-4195-8F24-315C68C1009E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B8ABC738-EBD9-4195-8F24-315C68C1009E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,11 +22,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$B$1:$M$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$B$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="383">
   <si>
     <t>Media, Telecoms and Broadcasting</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Insufficient legal basis for data processing</t>
-  </si>
-  <si>
-    <t>Accomodation and Hospitalty</t>
   </si>
   <si>
     <t>Non-compliance with general data processing principles</t>
@@ -1143,6 +1140,159 @@
   </si>
   <si>
     <t>Average of Fine [€]</t>
+  </si>
+  <si>
+    <t>ETid-2780</t>
+  </si>
+  <si>
+    <t>Maynooth University</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f) GDPR, Art. 32 (1) GDPR, Art. 33 (1) GDPR</t>
+  </si>
+  <si>
+    <t>The Irish DPA has imposed a fine of EUR 40,000 on Maynooth University. The controller failed to implement adequate technical and organisational measures, resulting in an unauthorised third party gaining access to multiple employees' email accounts, which the third party then used for fraudulent purposes.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2780 (Copy: ) | Short URL: https://etid.link/ETid-2780</t>
+  </si>
+  <si>
+    <t>ETid-2779</t>
+  </si>
+  <si>
+    <t>Sligo County Council</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) a), c), e), f) GDPR, Art. 13 (1), (3) GDPR, Art. 24 (1) GDPR, Art. 25 GDPR, Art. 30 GDPR, Art. 32 (1) GDPR</t>
+  </si>
+  <si>
+    <t>The Irish DPA has imposed a fine of EUR 29,500 on the Sligo County Council. The controller used video surveillance but failed to ensure compliance with the GDPR. They failed to provide adequate information to data subjects, failed to implement sufficient technical and organisational measures to ensure GDPR compliance, failed to ensure adequate data security and stored the recorded data for longer than necessary.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2779 (Copy: ) | Short URL: https://etid.link/ETid-2779</t>
+  </si>
+  <si>
+    <t>ETid-2684</t>
+  </si>
+  <si>
+    <t>City of Dublin Education and Training Board</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f) GDPR, Art. 32 (1), (2) GDPR, Art. 33 (1) GDPR, Art. 34 (1), (4) GDPR</t>
+  </si>
+  <si>
+    <t>The Irish DPA has imposed a fine of EUR 125,000 on the City of Dublin Education and Training Board. The controller suffered a data breach due to insufficient technical and organisational measures, concerning around 13,000 data subjects. The controller also failed to inform the DPC and the data subjects without undue delay.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2684 (Copy: ) | Short URL: https://etid.link/ETid-2684</t>
+  </si>
+  <si>
+    <t>ETid-2657</t>
+  </si>
+  <si>
+    <t>Departement of Social Security</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) a), e) GDPR, Art. 6 (1) GDPR, Art. 9 (1) GDPR, Art. 13 (1) c) GDPR, Art. 13 (2) a) GDPR, Art. 35 (VII) b), c) GDPR</t>
+  </si>
+  <si>
+    <t>The Irish DPA imposed a fine of EUR 550,000 on the Departement of Social Security. The controller uses the so called SAFE 2 registration process for anyone applying for a Public Services Card. The SAFE 2 registration, which is mandatory, processes biometric data without a sufficient legal basis. The controller also failed to adequately inform data subjects in regards to the processing and to conduct a data protection impact assessment.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2657 (Copy: ) | Short URL: https://etid.link/ETid-2657</t>
+  </si>
+  <si>
+    <t>ETid-2584</t>
+  </si>
+  <si>
+    <t>TikTok Technology Limited</t>
+  </si>
+  <si>
+    <t>Art. 13 (1) f) GDPR, Art. 46 (1) GDPR</t>
+  </si>
+  <si>
+    <t>The Irish DPA (DPC) has fined TikTok EUR 530 million. In its decision, the DPC found, that TikTok infringed Art. 13 (1) f) GDPR and Art. 46 (1) GDPR due to the unlawful transfer and storage of personal data from users in the EEA on Chinese servers. TikTok was unable to verify, guarantee and demonstrate that the supplementary measures and the Standard Contractual Clauses were effective to guarantee that the data afforded a level of protection, which is equivalent of the level of protection guaranteed in the EU. TikTok also failed to inform the data subjects, that their personal data is transferred to a third country. The fine consists of a fine of EUR 45 million for the failure to inform the data subjects and a fine of EUR 485 million for the infringement of Art. 46 (1) GDPR. The DPC also ordered TikTok to bring their processes into compliance with the GDPR within 6 months after the period allowed for an appeal against the DPCs final decision.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2584 (Copy: ) | Short URL: https://etid.link/ETid-2584</t>
+  </si>
+  <si>
+    <t>Only intention to issue fine</t>
+  </si>
+  <si>
+    <t>ETid-2899</t>
+  </si>
+  <si>
+    <t>CAPITA PENSION SOLUTIONS LIMITED</t>
+  </si>
+  <si>
+    <t>Art. 32 (1), (2) UK GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 6,000,000 (EUR 6,880,000) on CAPITA PENSION SOLUTIONS LIMITED. CAPITA PENSION SOLUTIONS LIMITED acts as the data processor for the CAPITA Group, which has suffered a cyber attack. The processor failed to implement adeqaute technical and organisational measures to ensure data security and also failed to adequatly react to the incident.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2899 (Copy: ) | Short URL: https://etid.link/ETid-2899</t>
+  </si>
+  <si>
+    <t>ETid-2898</t>
+  </si>
+  <si>
+    <t>CAPITA PLC</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f) UK GDPR, Art. 32 (1), (2) UK GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 8,000,000 (EUR 9,180,000) on CAPITA PLC. CAPITA PLC acts as the data controller for the CAPITA Group, which has suffered a cyber attack. The controller failed to implement adeqaute technical and organisational measures to ensure data security and also failed to adequatly react to the incident.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2898 (Copy: ) | Short URL: https://etid.link/ETid-2898</t>
+  </si>
+  <si>
+    <t>ETid-2885</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 200 (EUR 230) on a police officer. The controller forwarded sensitive and restricted personal data that he had obtained in the course of his work to his personal email address.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2885 (Copy: ) | Short URL: https://etid.link/ETid-2885</t>
+  </si>
+  <si>
+    <t>ETid-2766</t>
+  </si>
+  <si>
+    <t>Birthlink</t>
+  </si>
+  <si>
+    <t>Art. 5 (1) f), (2) GDPR, Art. 32 (1), (2) GDPR, Art. 33 GDPR</t>
+  </si>
+  <si>
+    <t>The UK DPA has imposed a fine of £ 18,000 (EUR 20,725) on Birthlink. The controller, a scottish registered charity, failed to implement sufficient technical and organisational measures to ensure data security, resulting in the loss of irreplaceable personal records.</t>
+  </si>
+  <si>
+    <t>link   link</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2766 (Copy: ) | Short URL: https://etid.link/ETid-2766</t>
+  </si>
+  <si>
+    <t>ETid-2656</t>
+  </si>
+  <si>
+    <t>23andMe, Inc.</t>
+  </si>
+  <si>
+    <t>The UK DPA imposed a fine of £ 2,310,000 (EUR 2,700,000) on 23andMe, Inc. The controller, a company offering DNA testing to private individuals, failed to implement sufficient technical and organizational measures to ensure data security, especially in regards to the sensitivity of the processed data. As a result, a cyberattack occurred, which led to a data breach affecting 155,592 UK-based users over the course of at least five months. The DPA considered the controller's failure to identify the attack earlier and its failure to adequately inform the DPA about the breach as aggravating factors.</t>
+  </si>
+  <si>
+    <t>https://www.enforcementtracker.com/ETid-2656 (Copy: ) | Short URL: https://etid.link/ETid-2656</t>
+  </si>
+  <si>
+    <t>Accomodation and Hospitality</t>
   </si>
 </sst>
 </file>
@@ -4414,7 +4564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C2F4C3F-3599-4245-A675-4800513897E4}" name="PivotTable9" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C2F4C3F-3599-4245-A675-4800513897E4}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4968,7 +5118,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -5276,10 +5426,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,7 +5499,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -5379,10 +5529,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +5601,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -5482,15 +5632,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="13">
         <v>15000</v>
@@ -5498,7 +5648,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="13">
         <v>3500000</v>
@@ -5506,7 +5656,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="13">
         <v>463000</v>
@@ -5514,7 +5664,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="13">
         <v>750000</v>
@@ -5522,7 +5672,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="13">
         <v>22046000</v>
@@ -5530,7 +5680,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="13">
         <v>585000</v>
@@ -5538,7 +5688,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="13">
         <v>8700</v>
@@ -5546,7 +5696,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="13">
         <v>460000</v>
@@ -5554,7 +5704,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="13">
         <v>9000000</v>
@@ -5562,7 +5712,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="13">
         <v>65000</v>
@@ -5570,7 +5720,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="13">
         <v>3250</v>
@@ -5578,7 +5728,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="13">
         <v>65000</v>
@@ -5586,7 +5736,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" s="13">
         <v>13500</v>
@@ -5594,7 +5744,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="13">
         <v>320000</v>
@@ -5602,7 +5752,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13">
         <v>70300</v>
@@ -5610,7 +5760,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="13">
         <v>1547000</v>
@@ -5618,7 +5768,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="13">
         <v>0</v>
@@ -5626,7 +5776,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="13">
         <v>11800</v>
@@ -5634,7 +5784,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="13">
         <v>5033000</v>
@@ -5642,7 +5792,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="13">
         <v>90000</v>
@@ -5650,7 +5800,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="13">
         <v>22500</v>
@@ -5658,7 +5808,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="13">
         <v>60000</v>
@@ -5666,7 +5816,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" s="13">
         <v>5000</v>
@@ -5674,7 +5824,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="13">
         <v>110000</v>
@@ -5682,7 +5832,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="13">
         <v>310000000</v>
@@ -5690,7 +5840,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29" s="13">
         <v>202000</v>
@@ -5698,7 +5848,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="13">
         <v>20450000</v>
@@ -5706,7 +5856,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="13">
         <v>29000</v>
@@ -5714,7 +5864,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="13">
         <v>369000000</v>
@@ -5722,7 +5872,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="13">
         <v>405000000</v>
@@ -5730,7 +5880,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" s="13">
         <v>1500</v>
@@ -5738,7 +5888,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="13">
         <v>904000</v>
@@ -5746,7 +5896,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="13">
         <v>5000</v>
@@ -5754,7 +5904,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="13">
         <v>91000</v>
@@ -5762,7 +5912,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="13">
         <v>1405000</v>
@@ -5770,7 +5920,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="13">
         <v>14500000</v>
@@ -5778,7 +5928,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="13">
         <v>345000000</v>
@@ -5786,7 +5936,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="13">
         <v>115000</v>
@@ -5794,7 +5944,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B42" s="13">
         <v>66666.666666666672</v>
@@ -5802,7 +5952,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="13">
         <v>450000</v>
@@ -5810,7 +5960,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="13">
         <v>400000</v>
@@ -5818,7 +5968,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="13">
         <v>70000</v>
@@ -5826,7 +5976,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="13">
         <v>30291.666666666668</v>
@@ -5834,7 +5984,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="13">
         <v>100000</v>
@@ -5842,7 +5992,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" s="13">
         <v>1400</v>
@@ -5850,7 +6000,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="13">
         <v>115250000</v>
@@ -5858,13 +6008,13 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B51" s="13">
         <v>55200483.846153848</v>
@@ -5879,7 +6029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10603561-C3FD-458D-A025-867D2BEB0B04}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -5890,10 +6040,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5962,7 +6112,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -5981,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6FAAA4-B0E5-44BB-B021-0459D806A5BC}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B47"/>
     </sheetView>
   </sheetViews>
@@ -5993,15 +6143,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>15000</v>
@@ -6009,7 +6159,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>3500000</v>
@@ -6017,7 +6167,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4">
         <v>463000</v>
@@ -6025,7 +6175,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <v>750000</v>
@@ -6033,7 +6183,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>22046000</v>
@@ -6041,7 +6191,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>585000</v>
@@ -6049,7 +6199,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>8700</v>
@@ -6057,7 +6207,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>460000</v>
@@ -6065,7 +6215,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>9000000</v>
@@ -6073,7 +6223,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11">
         <v>65000</v>
@@ -6081,7 +6231,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12">
         <v>3250</v>
@@ -6089,7 +6239,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>65000</v>
@@ -6097,7 +6247,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14">
         <v>13500</v>
@@ -6105,7 +6255,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>320000</v>
@@ -6113,7 +6263,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>70300</v>
@@ -6121,7 +6271,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>1547000</v>
@@ -6129,7 +6279,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6137,7 +6287,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>11800</v>
@@ -6145,7 +6295,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>5033000</v>
@@ -6153,7 +6303,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>90000</v>
@@ -6161,7 +6311,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>22500</v>
@@ -6169,7 +6319,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23">
         <v>60000</v>
@@ -6177,7 +6327,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24">
         <v>5000</v>
@@ -6185,7 +6335,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25">
         <v>110000</v>
@@ -6193,7 +6343,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26">
         <v>310000000</v>
@@ -6201,7 +6351,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B27">
         <v>202000</v>
@@ -6209,7 +6359,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <v>20450000</v>
@@ -6217,7 +6367,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>29000</v>
@@ -6225,7 +6375,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30">
         <v>369000000</v>
@@ -6233,7 +6383,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31">
         <v>405000000</v>
@@ -6241,7 +6391,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32">
         <v>1500</v>
@@ -6249,7 +6399,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>904000</v>
@@ -6257,7 +6407,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -6265,7 +6415,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>91000</v>
@@ -6273,7 +6423,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>1405000</v>
@@ -6281,7 +6431,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>14500000</v>
@@ -6289,7 +6439,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38">
         <v>345000000</v>
@@ -6297,7 +6447,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>115000</v>
@@ -6305,7 +6455,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B40">
         <v>66666.666666666672</v>
@@ -6313,7 +6463,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41">
         <v>450000</v>
@@ -6321,7 +6471,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>400000</v>
@@ -6329,7 +6479,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43">
         <v>70000</v>
@@ -6337,7 +6487,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>30291.666666666668</v>
@@ -6345,7 +6495,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>100000</v>
@@ -6353,7 +6503,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46">
         <v>1400</v>
@@ -6361,7 +6511,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47">
         <v>115250000</v>
@@ -6374,10 +6524,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C10F3D5-E512-43BD-904F-2702F7F5DB43}">
-  <dimension ref="B1:M66"/>
+  <dimension ref="B1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B72" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,2514 +6548,2894 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45761</v>
-      </c>
-      <c r="F2" s="2">
-        <v>70300</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="4">
+        <v>65000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45742</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3500000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M7" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="4">
+        <v>250000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="5">
+        <v>44578</v>
+      </c>
+      <c r="F14" s="4">
+        <v>65000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45561</v>
-      </c>
-      <c r="F4" s="2">
-        <v>904000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45412</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8700</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K14" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43514</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45273</v>
-      </c>
-      <c r="F6" s="2">
-        <v>400000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45020</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14500000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44853</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5033000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44838</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1547000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44721</v>
-      </c>
-      <c r="F10" s="2">
-        <v>91000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44699</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9000000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44630</v>
-      </c>
-      <c r="F12" s="2">
-        <v>115000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44525</v>
-      </c>
-      <c r="F13" s="2">
-        <v>585000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44487</v>
-      </c>
-      <c r="F14" s="2">
-        <v>11800</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44382</v>
-      </c>
-      <c r="F15" s="2">
-        <v>29000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
+      <c r="M15" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="E16" s="1">
-        <v>44148</v>
+        <v>44755</v>
       </c>
       <c r="F16" s="2">
-        <v>1405000</v>
+        <v>202000</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="L16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="E17" s="1">
-        <v>43816</v>
+        <v>44176</v>
       </c>
       <c r="F17" s="2">
-        <v>320000</v>
+        <v>3250</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="L17" t="s">
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="E18" s="1">
-        <v>44134</v>
+        <v>44007</v>
       </c>
       <c r="F18" s="2">
-        <v>20450000</v>
+        <v>13500</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="L18" t="s">
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
-        <v>44120</v>
+        <v>45618</v>
       </c>
       <c r="F19" s="2">
-        <v>22046000</v>
+        <v>40000</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="L19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
       <c r="E20" s="1">
-        <v>45643</v>
+        <v>45609</v>
       </c>
       <c r="F20" s="2">
-        <v>251000000</v>
+        <v>29500</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="J20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="L20" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
         <v>118</v>
       </c>
-      <c r="D21" t="s">
-        <v>119</v>
-      </c>
       <c r="E21" s="1">
-        <v>45589</v>
+        <v>45831</v>
       </c>
       <c r="F21" s="2">
-        <v>310000000</v>
+        <v>125000</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="L21" t="s">
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
       <c r="E22" s="1">
-        <v>45562</v>
+        <v>45820</v>
       </c>
       <c r="F22" s="2">
-        <v>91000000</v>
+        <v>550000</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>348</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="J22" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="L22" t="s">
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
       <c r="E23" s="1">
-        <v>45170</v>
+        <v>45779</v>
       </c>
       <c r="F23" s="2">
-        <v>345000000</v>
+        <v>530000000</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="L23" t="s">
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
         <v>118</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1">
+        <v>45643</v>
+      </c>
+      <c r="F24" s="2">
+        <v>251000000</v>
+      </c>
+      <c r="G24" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="1">
-        <v>45093</v>
-      </c>
-      <c r="F24" s="2">
-        <v>22500</v>
-      </c>
-      <c r="G24" t="s">
-        <v>139</v>
-      </c>
       <c r="H24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
-        <v>119</v>
-      </c>
       <c r="E25" s="1">
-        <v>45058</v>
+        <v>45589</v>
       </c>
       <c r="F25" s="2">
-        <v>1200000000</v>
+        <v>310000000</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="J25" t="s">
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1">
+        <v>45562</v>
+      </c>
+      <c r="F26" s="2">
+        <v>91000000</v>
+      </c>
+      <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1">
-        <v>44984</v>
-      </c>
-      <c r="F26" s="2">
-        <v>750000</v>
-      </c>
-      <c r="G26" t="s">
-        <v>148</v>
-      </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="J26" t="s">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s">
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
         <v>118</v>
       </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
       <c r="E27" s="1">
-        <v>44925</v>
+        <v>45170</v>
       </c>
       <c r="F27" s="2">
-        <v>15000</v>
+        <v>345000000</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s">
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" s="1">
-        <v>44949</v>
+        <v>45093</v>
       </c>
       <c r="F28" s="2">
-        <v>460000</v>
+        <v>22500</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1">
+        <v>45058</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1200000000</v>
+      </c>
+      <c r="G29" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44945</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5500000</v>
-      </c>
-      <c r="G29" t="s">
-        <v>162</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
       <c r="E30" s="1">
-        <v>44917</v>
+        <v>44984</v>
       </c>
       <c r="F30" s="2">
-        <v>100000</v>
+        <v>750000</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>149</v>
       </c>
-      <c r="J30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s">
-        <v>168</v>
-      </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
         <v>118</v>
       </c>
-      <c r="D31" t="s">
-        <v>119</v>
-      </c>
       <c r="E31" s="1">
-        <v>44930</v>
+        <v>44925</v>
       </c>
       <c r="F31" s="2">
-        <v>390000000</v>
+        <v>15000</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="L31" t="s">
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
         <v>118</v>
       </c>
-      <c r="D32" t="s">
-        <v>119</v>
-      </c>
       <c r="E32" s="1">
-        <v>44587</v>
+        <v>44949</v>
       </c>
       <c r="F32" s="2">
-        <v>5000</v>
+        <v>460000</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="L32" t="s">
         <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
       <c r="E33" s="1">
-        <v>44890</v>
+        <v>44945</v>
       </c>
       <c r="F33" s="2">
-        <v>265000000</v>
+        <v>5500000</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J33" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
-        <v>119</v>
-      </c>
       <c r="E34" s="1">
-        <v>44809</v>
+        <v>44917</v>
       </c>
       <c r="F34" s="2">
-        <v>405000000</v>
+        <v>100000</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="J34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="1">
+        <v>44930</v>
+      </c>
+      <c r="F35" s="2">
+        <v>390000000</v>
+      </c>
+      <c r="G35" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="1">
-        <v>44656</v>
-      </c>
-      <c r="F35" s="2">
-        <v>463000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>189</v>
-      </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
         <v>118</v>
       </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
       <c r="E36" s="1">
-        <v>44635</v>
+        <v>44587</v>
       </c>
       <c r="F36" s="2">
-        <v>17000000</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="H36" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J36" t="s">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s">
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
         <v>118</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1">
+        <v>44890</v>
+      </c>
+      <c r="F37" s="2">
+        <v>265000000</v>
+      </c>
+      <c r="G37" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="1">
-        <v>44539</v>
-      </c>
-      <c r="F37" s="2">
-        <v>110000</v>
-      </c>
-      <c r="G37" t="s">
-        <v>198</v>
-      </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
         <v>118</v>
       </c>
-      <c r="D38" t="s">
-        <v>119</v>
-      </c>
       <c r="E38" s="1">
-        <v>44532</v>
+        <v>44809</v>
       </c>
       <c r="F38" s="2">
-        <v>60000</v>
+        <v>405000000</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="J38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
       <c r="E39" s="1">
-        <v>44428</v>
+        <v>44656</v>
       </c>
       <c r="F39" s="2">
-        <v>1500</v>
+        <v>463000</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="1">
+        <v>44635</v>
+      </c>
+      <c r="F40" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="G40" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44475</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>212</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s">
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
         <v>118</v>
       </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
       <c r="E41" s="1">
-        <v>44446</v>
+        <v>44539</v>
       </c>
       <c r="F41" s="2">
-        <v>1400</v>
+        <v>110000</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H41" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="L41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
         <v>118</v>
       </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
       <c r="E42" s="1">
-        <v>44441</v>
+        <v>44532</v>
       </c>
       <c r="F42" s="2">
-        <v>225000000</v>
+        <v>60000</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
         <v>118</v>
       </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
       <c r="E43" s="1">
-        <v>44278</v>
+        <v>44428</v>
       </c>
       <c r="F43" s="2">
-        <v>90000</v>
+        <v>1500</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H43" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="J43" t="s">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
         <v>118</v>
       </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
       <c r="E44" s="1">
-        <v>44055</v>
-      </c>
-      <c r="F44" s="2">
-        <v>85000</v>
+        <v>44475</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="J44" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s">
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
       <c r="E45" s="1">
-        <v>44182</v>
+        <v>44446</v>
       </c>
       <c r="F45" s="2">
-        <v>70000</v>
+        <v>1400</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="J45" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s">
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
         <v>118</v>
       </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
       <c r="E46" s="1">
-        <v>44180</v>
+        <v>44441</v>
       </c>
       <c r="F46" s="2">
-        <v>450000</v>
+        <v>225000000</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M46" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
         <v>118</v>
       </c>
-      <c r="D47" t="s">
-        <v>119</v>
-      </c>
       <c r="E47" s="1">
-        <v>44061</v>
+        <v>44278</v>
       </c>
       <c r="F47" s="2">
-        <v>65000</v>
+        <v>90000</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="J47" t="s">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s">
         <v>2</v>
       </c>
       <c r="M47" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
         <v>118</v>
       </c>
-      <c r="D48" t="s">
-        <v>119</v>
-      </c>
       <c r="E48" s="1">
-        <v>44012</v>
+        <v>44055</v>
       </c>
       <c r="F48" s="2">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="G48" t="s">
+        <v>230</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>231</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>250</v>
       </c>
       <c r="L48" t="s">
         <v>2</v>
       </c>
       <c r="M48" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
         <v>118</v>
       </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
       <c r="E49" s="1">
-        <v>43968</v>
+        <v>44182</v>
       </c>
       <c r="F49" s="2">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="J49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="L49" t="s">
         <v>2</v>
       </c>
       <c r="M49" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44180</v>
+      </c>
+      <c r="F50" s="2">
+        <v>450000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>240</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>241</v>
+      </c>
+      <c r="L50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44061</v>
+      </c>
+      <c r="F51" s="2">
         <v>65000</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="G51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L50" s="3" t="s">
+      <c r="I51" t="s">
+        <v>245</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>246</v>
+      </c>
+      <c r="L51" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2500</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44012</v>
+      </c>
+      <c r="F52" s="2">
+        <v>40000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>249</v>
+      </c>
+      <c r="L52" t="s">
         <v>2</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43968</v>
+      </c>
+      <c r="F53" s="2">
+        <v>75000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>252</v>
+      </c>
+      <c r="L53" t="s">
         <v>2</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F53" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>272</v>
+      <c r="M53" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E54" s="5">
+        <v>45945</v>
       </c>
       <c r="F54" s="4">
-        <v>20000</v>
+        <v>6880000</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>8</v>
+        <v>359</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E55" s="3">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E55" s="5">
+        <v>45945</v>
       </c>
       <c r="F55" s="4">
-        <v>2500</v>
+        <v>9180000</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2000</v>
+        <v>35</v>
+      </c>
+      <c r="E56" s="5">
+        <v>45873</v>
+      </c>
+      <c r="F56" s="3">
+        <v>230</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>282</v>
+        <v>7</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E57" s="5">
+        <v>45832</v>
       </c>
       <c r="F57" s="4">
-        <v>2500</v>
+        <v>20725</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I57" s="3" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E58" s="5">
+        <v>45813</v>
       </c>
       <c r="F58" s="4">
-        <v>2500</v>
+        <v>2700000</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2020</v>
+        <v>35</v>
+      </c>
+      <c r="E59" s="5">
+        <v>45761</v>
       </c>
       <c r="F59" s="4">
-        <v>5000</v>
+        <v>70300</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>291</v>
+      <c r="K59" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2022</v>
+        <v>35</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45742</v>
       </c>
       <c r="F60" s="4">
-        <v>250000</v>
+        <v>3500000</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2022</v>
+        <v>35</v>
+      </c>
+      <c r="E61" s="5">
+        <v>45561</v>
       </c>
       <c r="F61" s="4">
-        <v>2500</v>
+        <v>904000</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="E62" s="5">
-        <v>44578</v>
+        <v>45412</v>
       </c>
       <c r="F62" s="4">
-        <v>65000</v>
+        <v>8700</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>303</v>
+      <c r="K62" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="E63" s="5">
-        <v>43514</v>
+        <v>45273</v>
       </c>
       <c r="F63" s="4">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>306</v>
+        <v>54</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" t="s">
-        <v>310</v>
-      </c>
-      <c r="D64" t="s">
-        <v>311</v>
-      </c>
-      <c r="E64" s="1">
-        <v>44755</v>
-      </c>
-      <c r="F64" s="2">
-        <v>202000</v>
-      </c>
-      <c r="G64" t="s">
-        <v>312</v>
-      </c>
-      <c r="H64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" t="s">
-        <v>313</v>
-      </c>
-      <c r="J64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="5">
+        <v>45020</v>
+      </c>
+      <c r="F64" s="4">
+        <v>14500000</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="5">
+        <v>44853</v>
+      </c>
+      <c r="F65" s="4">
+        <v>5033000</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="5">
+        <v>44838</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1547000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="5">
+        <v>44721</v>
+      </c>
+      <c r="F67" s="4">
+        <v>91000</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="5">
+        <v>44699</v>
+      </c>
+      <c r="F68" s="4">
+        <v>9000000</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="5">
+        <v>44630</v>
+      </c>
+      <c r="F69" s="4">
+        <v>115000</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="5">
+        <v>44525</v>
+      </c>
+      <c r="F70" s="4">
+        <v>585000</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="5">
+        <v>44487</v>
+      </c>
+      <c r="F71" s="4">
+        <v>11800</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="5">
+        <v>44382</v>
+      </c>
+      <c r="F72" s="4">
+        <v>29000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="5">
+        <v>44148</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1405000</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="5">
+        <v>43816</v>
+      </c>
+      <c r="F74" s="4">
+        <v>320000</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K64" t="s">
-        <v>314</v>
-      </c>
-      <c r="L64" t="s">
-        <v>10</v>
-      </c>
-      <c r="M64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>316</v>
-      </c>
-      <c r="C65" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="1">
-        <v>44176</v>
-      </c>
-      <c r="F65" s="2">
-        <v>3250</v>
-      </c>
-      <c r="G65" t="s">
-        <v>317</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>318</v>
-      </c>
-      <c r="J65" t="s">
-        <v>319</v>
-      </c>
-      <c r="K65" t="s">
-        <v>320</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="I74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>322</v>
-      </c>
-      <c r="C66" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="1">
-        <v>44007</v>
-      </c>
-      <c r="F66" s="2">
-        <v>13500</v>
-      </c>
-      <c r="G66" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" t="s">
-        <v>324</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="M74" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F75" s="4">
+        <v>20450000</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M66" t="s">
-        <v>325</v>
+      <c r="M75" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="5">
+        <v>44120</v>
+      </c>
+      <c r="F76" s="4">
+        <v>22046000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M49" xr:uid="{9C10F3D5-E512-43BD-904F-2702F7F5DB43}"/>
+  <autoFilter ref="B1:M18" xr:uid="{9C10F3D5-E512-43BD-904F-2702F7F5DB43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>